--- a/result-highlighted.xlsx
+++ b/result-highlighted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codee\package_splitter\splitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{50ED6B43-9FE7-46ED-A43C-2A57A3E497C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EE7D55-C752-4233-80BF-176681853041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -545,77 +545,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -988,11 +918,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,28 +935,28 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1037,380 +967,1213 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/result-highlighted.xlsx
+++ b/result-highlighted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codee\package_splitter\splitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BC5A82-4ABB-469A-838B-D2CA2B10F520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D413EC-A5EE-4559-978E-095144868649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BN270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="Z100" sqref="Z100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,13 +1035,13 @@
         <v>1</v>
       </c>
       <c r="N1" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P1" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q1" s="1">
         <v>2</v>
@@ -1223,28 +1223,28 @@
         <v>1</v>
       </c>
       <c r="N2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V2" s="1">
         <v>2</v>
@@ -1295,10 +1295,10 @@
         <v>2</v>
       </c>
       <c r="AL2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO2" s="1">
         <v>1</v>
@@ -1411,28 +1411,28 @@
         <v>1</v>
       </c>
       <c r="N3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V3" s="1">
         <v>2</v>
@@ -1483,10 +1483,10 @@
         <v>2</v>
       </c>
       <c r="AL3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO3" s="1">
         <v>1</v>
@@ -1599,28 +1599,28 @@
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V4" s="1">
         <v>2</v>
@@ -1671,10 +1671,10 @@
         <v>2</v>
       </c>
       <c r="AL4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO4" s="1">
         <v>1</v>
@@ -1787,28 +1787,28 @@
         <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V5" s="1">
         <v>2</v>
@@ -1859,10 +1859,10 @@
         <v>2</v>
       </c>
       <c r="AL5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO5" s="1">
         <v>1</v>
@@ -1975,34 +1975,34 @@
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X6" s="1">
         <v>2</v>
@@ -2011,46 +2011,46 @@
         <v>2</v>
       </c>
       <c r="Z6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO6" s="1">
         <v>1</v>
@@ -2163,34 +2163,34 @@
         <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X7" s="1">
         <v>2</v>
@@ -2199,46 +2199,46 @@
         <v>2</v>
       </c>
       <c r="Z7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO7" s="1">
         <v>1</v>
@@ -2351,34 +2351,34 @@
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X8" s="1">
         <v>2</v>
@@ -2387,46 +2387,46 @@
         <v>2</v>
       </c>
       <c r="Z8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO8" s="1">
         <v>1</v>
@@ -2539,34 +2539,34 @@
         <v>1</v>
       </c>
       <c r="N9" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O9" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P9" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X9" s="1">
         <v>2</v>
@@ -2575,46 +2575,46 @@
         <v>2</v>
       </c>
       <c r="Z9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO9" s="1">
         <v>1</v>
@@ -2727,34 +2727,34 @@
         <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X10" s="1">
         <v>2</v>
@@ -2763,40 +2763,40 @@
         <v>2</v>
       </c>
       <c r="Z10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL10" s="1">
         <v>3</v>
@@ -2909,82 +2909,82 @@
         <v>3</v>
       </c>
       <c r="L11" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M11" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N11" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O11" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P11" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC11" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD11" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL11" s="1">
         <v>3</v>
@@ -3097,61 +3097,61 @@
         <v>3</v>
       </c>
       <c r="L12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC12" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD12" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE12" s="1">
         <v>3</v>
@@ -3255,61 +3255,61 @@
     </row>
     <row r="13" spans="1:66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC13" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD13" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE13" s="1">
         <v>3</v>
@@ -3443,49 +3443,49 @@
         <v>2</v>
       </c>
       <c r="L14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R14" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S14" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T14" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA14" s="1">
         <v>3</v>
@@ -3494,37 +3494,37 @@
         <v>3</v>
       </c>
       <c r="AC14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO14" s="1">
         <v>1</v>
@@ -3631,49 +3631,49 @@
         <v>2</v>
       </c>
       <c r="L15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA15" s="1">
         <v>3</v>
@@ -3682,37 +3682,37 @@
         <v>3</v>
       </c>
       <c r="AC15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO15" s="1">
         <v>3</v>
@@ -3819,31 +3819,31 @@
         <v>2</v>
       </c>
       <c r="L16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U16" s="1">
         <v>1</v>
@@ -3855,13 +3855,13 @@
         <v>1</v>
       </c>
       <c r="X16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA16" s="1">
         <v>3</v>
@@ -3870,37 +3870,37 @@
         <v>3</v>
       </c>
       <c r="AC16" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD16" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE16" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF16" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG16" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH16" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI16" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ16" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK16" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL16" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM16" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO16" s="1">
         <v>3</v>
@@ -4007,31 +4007,31 @@
         <v>2</v>
       </c>
       <c r="L17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U17" s="1">
         <v>1</v>
@@ -4043,13 +4043,13 @@
         <v>1</v>
       </c>
       <c r="X17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA17" s="1">
         <v>3</v>
@@ -4058,37 +4058,37 @@
         <v>3</v>
       </c>
       <c r="AC17" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD17" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE17" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF17" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG17" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH17" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI17" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ17" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK17" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL17" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM17" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO17" s="1">
         <v>3</v>
@@ -4195,49 +4195,49 @@
         <v>2</v>
       </c>
       <c r="L18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA18" s="1">
         <v>3</v>
@@ -4246,37 +4246,37 @@
         <v>3</v>
       </c>
       <c r="AC18" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD18" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE18" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF18" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG18" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH18" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI18" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ18" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK18" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL18" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM18" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO18" s="1">
         <v>3</v>
@@ -4383,46 +4383,46 @@
         <v>2</v>
       </c>
       <c r="L19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z19" s="1">
         <v>3</v>
@@ -4431,40 +4431,40 @@
         <v>3</v>
       </c>
       <c r="AB19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO19" s="1">
         <v>3</v>
@@ -4571,46 +4571,46 @@
         <v>2</v>
       </c>
       <c r="L20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z20" s="1">
         <v>3</v>
@@ -4619,40 +4619,40 @@
         <v>3</v>
       </c>
       <c r="AB20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO20" s="1">
         <v>3</v>
@@ -4759,46 +4759,46 @@
         <v>2</v>
       </c>
       <c r="L21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z21" s="1">
         <v>3</v>
@@ -4807,40 +4807,40 @@
         <v>3</v>
       </c>
       <c r="AB21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO21" s="1">
         <v>3</v>
@@ -4947,46 +4947,46 @@
         <v>2</v>
       </c>
       <c r="L22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z22" s="1">
         <v>3</v>
@@ -4995,40 +4995,40 @@
         <v>3</v>
       </c>
       <c r="AB22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5063,88 +5063,88 @@
         <v>2</v>
       </c>
       <c r="L23" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M23" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N23" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O23" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P23" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13545,62 +13545,3972 @@
       </c>
     </row>
     <row r="120" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L121" s="1">
+        <v>1</v>
+      </c>
+      <c r="M121" s="1">
+        <v>1</v>
+      </c>
+      <c r="N121" s="1">
+        <v>1</v>
+      </c>
+      <c r="O121" s="1">
+        <v>1</v>
+      </c>
+      <c r="P121" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q121" s="1">
+        <v>2</v>
+      </c>
+      <c r="R121" s="1">
+        <v>2</v>
+      </c>
+      <c r="S121" s="1">
+        <v>2</v>
+      </c>
+      <c r="T121" s="1">
+        <v>2</v>
+      </c>
+      <c r="U121" s="1">
+        <v>2</v>
+      </c>
+      <c r="V121" s="1">
+        <v>2</v>
+      </c>
+      <c r="W121" s="1">
+        <v>2</v>
+      </c>
+      <c r="X121" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y121" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z121" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA121" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB121" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC121" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD121" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE121" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF121" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG121" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH121" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI121" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ121" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK121" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL121" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM121" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L122" s="1">
+        <v>1</v>
+      </c>
+      <c r="M122" s="1">
+        <v>1</v>
+      </c>
+      <c r="N122" s="1">
+        <v>1</v>
+      </c>
+      <c r="O122" s="1">
+        <v>1</v>
+      </c>
+      <c r="P122" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q122" s="1">
+        <v>1</v>
+      </c>
+      <c r="R122" s="1">
+        <v>1</v>
+      </c>
+      <c r="S122" s="1">
+        <v>1</v>
+      </c>
+      <c r="T122" s="1">
+        <v>1</v>
+      </c>
+      <c r="U122" s="1">
+        <v>1</v>
+      </c>
+      <c r="V122" s="1">
+        <v>2</v>
+      </c>
+      <c r="W122" s="1">
+        <v>2</v>
+      </c>
+      <c r="X122" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y122" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z122" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA122" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB122" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC122" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD122" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE122" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF122" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG122" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH122" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI122" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ122" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK122" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL122" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM122" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L123" s="1">
+        <v>1</v>
+      </c>
+      <c r="M123" s="1">
+        <v>1</v>
+      </c>
+      <c r="N123" s="1">
+        <v>1</v>
+      </c>
+      <c r="O123" s="1">
+        <v>1</v>
+      </c>
+      <c r="P123" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q123" s="1">
+        <v>1</v>
+      </c>
+      <c r="R123" s="1">
+        <v>1</v>
+      </c>
+      <c r="S123" s="1">
+        <v>1</v>
+      </c>
+      <c r="T123" s="1">
+        <v>1</v>
+      </c>
+      <c r="U123" s="1">
+        <v>1</v>
+      </c>
+      <c r="V123" s="1">
+        <v>2</v>
+      </c>
+      <c r="W123" s="1">
+        <v>2</v>
+      </c>
+      <c r="X123" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y123" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z123" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA123" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB123" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC123" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD123" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE123" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF123" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG123" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH123" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI123" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ123" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK123" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL123" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM123" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L124" s="1">
+        <v>1</v>
+      </c>
+      <c r="M124" s="1">
+        <v>1</v>
+      </c>
+      <c r="N124" s="1">
+        <v>1</v>
+      </c>
+      <c r="O124" s="1">
+        <v>1</v>
+      </c>
+      <c r="P124" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q124" s="1">
+        <v>1</v>
+      </c>
+      <c r="R124" s="1">
+        <v>1</v>
+      </c>
+      <c r="S124" s="1">
+        <v>1</v>
+      </c>
+      <c r="T124" s="1">
+        <v>1</v>
+      </c>
+      <c r="U124" s="1">
+        <v>1</v>
+      </c>
+      <c r="V124" s="1">
+        <v>2</v>
+      </c>
+      <c r="W124" s="1">
+        <v>2</v>
+      </c>
+      <c r="X124" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y124" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z124" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA124" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB124" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC124" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD124" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE124" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF124" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG124" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH124" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI124" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ124" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK124" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL124" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM124" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L125" s="1">
+        <v>1</v>
+      </c>
+      <c r="M125" s="1">
+        <v>1</v>
+      </c>
+      <c r="N125" s="1">
+        <v>1</v>
+      </c>
+      <c r="O125" s="1">
+        <v>1</v>
+      </c>
+      <c r="P125" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q125" s="1">
+        <v>1</v>
+      </c>
+      <c r="R125" s="1">
+        <v>1</v>
+      </c>
+      <c r="S125" s="1">
+        <v>1</v>
+      </c>
+      <c r="T125" s="1">
+        <v>1</v>
+      </c>
+      <c r="U125" s="1">
+        <v>1</v>
+      </c>
+      <c r="V125" s="1">
+        <v>2</v>
+      </c>
+      <c r="W125" s="1">
+        <v>2</v>
+      </c>
+      <c r="X125" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y125" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z125" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA125" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB125" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC125" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD125" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE125" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF125" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG125" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH125" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI125" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ125" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK125" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL125" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM125" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L126" s="1">
+        <v>1</v>
+      </c>
+      <c r="M126" s="1">
+        <v>1</v>
+      </c>
+      <c r="N126" s="1">
+        <v>1</v>
+      </c>
+      <c r="O126" s="1">
+        <v>1</v>
+      </c>
+      <c r="P126" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q126" s="1">
+        <v>1</v>
+      </c>
+      <c r="R126" s="1">
+        <v>1</v>
+      </c>
+      <c r="S126" s="1">
+        <v>1</v>
+      </c>
+      <c r="T126" s="1">
+        <v>1</v>
+      </c>
+      <c r="U126" s="1">
+        <v>1</v>
+      </c>
+      <c r="V126" s="1">
+        <v>1</v>
+      </c>
+      <c r="W126" s="1">
+        <v>1</v>
+      </c>
+      <c r="X126" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y126" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z126" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA126" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB126" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC126" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD126" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE126" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF126" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG126" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH126" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI126" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ126" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK126" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL126" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM126" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L127" s="1">
+        <v>1</v>
+      </c>
+      <c r="M127" s="1">
+        <v>1</v>
+      </c>
+      <c r="N127" s="1">
+        <v>1</v>
+      </c>
+      <c r="O127" s="1">
+        <v>1</v>
+      </c>
+      <c r="P127" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q127" s="1">
+        <v>1</v>
+      </c>
+      <c r="R127" s="1">
+        <v>1</v>
+      </c>
+      <c r="S127" s="1">
+        <v>1</v>
+      </c>
+      <c r="T127" s="1">
+        <v>1</v>
+      </c>
+      <c r="U127" s="1">
+        <v>1</v>
+      </c>
+      <c r="V127" s="1">
+        <v>1</v>
+      </c>
+      <c r="W127" s="1">
+        <v>1</v>
+      </c>
+      <c r="X127" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y127" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z127" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA127" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB127" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC127" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD127" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE127" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF127" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG127" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH127" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI127" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ127" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK127" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL127" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM127" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L128" s="1">
+        <v>1</v>
+      </c>
+      <c r="M128" s="1">
+        <v>1</v>
+      </c>
+      <c r="N128" s="1">
+        <v>1</v>
+      </c>
+      <c r="O128" s="1">
+        <v>1</v>
+      </c>
+      <c r="P128" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q128" s="1">
+        <v>1</v>
+      </c>
+      <c r="R128" s="1">
+        <v>1</v>
+      </c>
+      <c r="S128" s="1">
+        <v>1</v>
+      </c>
+      <c r="T128" s="1">
+        <v>1</v>
+      </c>
+      <c r="U128" s="1">
+        <v>1</v>
+      </c>
+      <c r="V128" s="1">
+        <v>1</v>
+      </c>
+      <c r="W128" s="1">
+        <v>1</v>
+      </c>
+      <c r="X128" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y128" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z128" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA128" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB128" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC128" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD128" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE128" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF128" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG128" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH128" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI128" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ128" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK128" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL128" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM128" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L129" s="1">
+        <v>1</v>
+      </c>
+      <c r="M129" s="1">
+        <v>1</v>
+      </c>
+      <c r="N129" s="1">
+        <v>1</v>
+      </c>
+      <c r="O129" s="1">
+        <v>1</v>
+      </c>
+      <c r="P129" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q129" s="1">
+        <v>1</v>
+      </c>
+      <c r="R129" s="1">
+        <v>1</v>
+      </c>
+      <c r="S129" s="1">
+        <v>2</v>
+      </c>
+      <c r="T129" s="1">
+        <v>2</v>
+      </c>
+      <c r="U129" s="1">
+        <v>2</v>
+      </c>
+      <c r="V129" s="1">
+        <v>2</v>
+      </c>
+      <c r="W129" s="1">
+        <v>2</v>
+      </c>
+      <c r="X129" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y129" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z129" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA129" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB129" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC129" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD129" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE129" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF129" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG129" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH129" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI129" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ129" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK129" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL129" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM129" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L130" s="1">
+        <v>1</v>
+      </c>
+      <c r="M130" s="1">
+        <v>1</v>
+      </c>
+      <c r="N130" s="1">
+        <v>1</v>
+      </c>
+      <c r="O130" s="1">
+        <v>1</v>
+      </c>
+      <c r="P130" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q130" s="1">
+        <v>1</v>
+      </c>
+      <c r="R130" s="1">
+        <v>1</v>
+      </c>
+      <c r="S130" s="1">
+        <v>2</v>
+      </c>
+      <c r="T130" s="1">
+        <v>2</v>
+      </c>
+      <c r="U130" s="1">
+        <v>2</v>
+      </c>
+      <c r="V130" s="1">
+        <v>2</v>
+      </c>
+      <c r="W130" s="1">
+        <v>2</v>
+      </c>
+      <c r="X130" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y130" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z130" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA130" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB130" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC130" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD130" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE130" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF130" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG130" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH130" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI130" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ130" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK130" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL130" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM130" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L131" s="1">
+        <v>1</v>
+      </c>
+      <c r="M131" s="1">
+        <v>1</v>
+      </c>
+      <c r="N131" s="1">
+        <v>1</v>
+      </c>
+      <c r="O131" s="1">
+        <v>1</v>
+      </c>
+      <c r="P131" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q131" s="1">
+        <v>1</v>
+      </c>
+      <c r="R131" s="1">
+        <v>1</v>
+      </c>
+      <c r="S131" s="1">
+        <v>2</v>
+      </c>
+      <c r="T131" s="1">
+        <v>2</v>
+      </c>
+      <c r="U131" s="1">
+        <v>2</v>
+      </c>
+      <c r="V131" s="1">
+        <v>2</v>
+      </c>
+      <c r="W131" s="1">
+        <v>2</v>
+      </c>
+      <c r="X131" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y131" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z131" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA131" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB131" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC131" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD131" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE131" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF131" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG131" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH131" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI131" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ131" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK131" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL131" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM131" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L132" s="1">
+        <v>1</v>
+      </c>
+      <c r="M132" s="1">
+        <v>1</v>
+      </c>
+      <c r="N132" s="1">
+        <v>1</v>
+      </c>
+      <c r="O132" s="1">
+        <v>1</v>
+      </c>
+      <c r="P132" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q132" s="1">
+        <v>1</v>
+      </c>
+      <c r="R132" s="1">
+        <v>1</v>
+      </c>
+      <c r="S132" s="1">
+        <v>1</v>
+      </c>
+      <c r="T132" s="1">
+        <v>1</v>
+      </c>
+      <c r="U132" s="1">
+        <v>1</v>
+      </c>
+      <c r="V132" s="1">
+        <v>1</v>
+      </c>
+      <c r="W132" s="1">
+        <v>1</v>
+      </c>
+      <c r="X132" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y132" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z132" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA132" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB132" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC132" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD132" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE132" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF132" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG132" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH132" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI132" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ132" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK132" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL132" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM132" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L133" s="1">
+        <v>1</v>
+      </c>
+      <c r="M133" s="1">
+        <v>1</v>
+      </c>
+      <c r="N133" s="1">
+        <v>1</v>
+      </c>
+      <c r="O133" s="1">
+        <v>1</v>
+      </c>
+      <c r="P133" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q133" s="1">
+        <v>1</v>
+      </c>
+      <c r="R133" s="1">
+        <v>1</v>
+      </c>
+      <c r="S133" s="1">
+        <v>1</v>
+      </c>
+      <c r="T133" s="1">
+        <v>1</v>
+      </c>
+      <c r="U133" s="1">
+        <v>2</v>
+      </c>
+      <c r="V133" s="1">
+        <v>2</v>
+      </c>
+      <c r="W133" s="1">
+        <v>2</v>
+      </c>
+      <c r="X133" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y133" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z133" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA133" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB133" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC133" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD133" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE133" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF133" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG133" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH133" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI133" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ133" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK133" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL133" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM133" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L134" s="1">
+        <v>1</v>
+      </c>
+      <c r="M134" s="1">
+        <v>1</v>
+      </c>
+      <c r="N134" s="1">
+        <v>1</v>
+      </c>
+      <c r="O134" s="1">
+        <v>1</v>
+      </c>
+      <c r="P134" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q134" s="1">
+        <v>1</v>
+      </c>
+      <c r="R134" s="1">
+        <v>1</v>
+      </c>
+      <c r="S134" s="1">
+        <v>1</v>
+      </c>
+      <c r="T134" s="1">
+        <v>1</v>
+      </c>
+      <c r="U134" s="1">
+        <v>2</v>
+      </c>
+      <c r="V134" s="1">
+        <v>2</v>
+      </c>
+      <c r="W134" s="1">
+        <v>2</v>
+      </c>
+      <c r="X134" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y134" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z134" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA134" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB134" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC134" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD134" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE134" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF134" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG134" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH134" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI134" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ134" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK134" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL134" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM134" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L135" s="1">
+        <v>1</v>
+      </c>
+      <c r="M135" s="1">
+        <v>1</v>
+      </c>
+      <c r="N135" s="1">
+        <v>1</v>
+      </c>
+      <c r="O135" s="1">
+        <v>1</v>
+      </c>
+      <c r="P135" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q135" s="1">
+        <v>1</v>
+      </c>
+      <c r="R135" s="1">
+        <v>1</v>
+      </c>
+      <c r="S135" s="1">
+        <v>1</v>
+      </c>
+      <c r="T135" s="1">
+        <v>1</v>
+      </c>
+      <c r="U135" s="1">
+        <v>2</v>
+      </c>
+      <c r="V135" s="1">
+        <v>2</v>
+      </c>
+      <c r="W135" s="1">
+        <v>2</v>
+      </c>
+      <c r="X135" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y135" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z135" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA135" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB135" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC135" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD135" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE135" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF135" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG135" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH135" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI135" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ135" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK135" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL135" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM135" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L136" s="1">
+        <v>1</v>
+      </c>
+      <c r="M136" s="1">
+        <v>1</v>
+      </c>
+      <c r="N136" s="1">
+        <v>1</v>
+      </c>
+      <c r="O136" s="1">
+        <v>1</v>
+      </c>
+      <c r="P136" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q136" s="1">
+        <v>1</v>
+      </c>
+      <c r="R136" s="1">
+        <v>1</v>
+      </c>
+      <c r="S136" s="1">
+        <v>1</v>
+      </c>
+      <c r="T136" s="1">
+        <v>1</v>
+      </c>
+      <c r="U136" s="1">
+        <v>1</v>
+      </c>
+      <c r="V136" s="1">
+        <v>1</v>
+      </c>
+      <c r="W136" s="1">
+        <v>1</v>
+      </c>
+      <c r="X136" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y136" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z136" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA136" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB136" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC136" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD136" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE136" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF136" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG136" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH136" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI136" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ136" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK136" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL136" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM136" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L137" s="1">
+        <v>1</v>
+      </c>
+      <c r="M137" s="1">
+        <v>1</v>
+      </c>
+      <c r="N137" s="1">
+        <v>1</v>
+      </c>
+      <c r="O137" s="1">
+        <v>1</v>
+      </c>
+      <c r="P137" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q137" s="1">
+        <v>3</v>
+      </c>
+      <c r="R137" s="1">
+        <v>3</v>
+      </c>
+      <c r="S137" s="1">
+        <v>1</v>
+      </c>
+      <c r="T137" s="1">
+        <v>1</v>
+      </c>
+      <c r="U137" s="1">
+        <v>1</v>
+      </c>
+      <c r="V137" s="1">
+        <v>1</v>
+      </c>
+      <c r="W137" s="1">
+        <v>1</v>
+      </c>
+      <c r="X137" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y137" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z137" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA137" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB137" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC137" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD137" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE137" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF137" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG137" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH137" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI137" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ137" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK137" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL137" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM137" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L138" s="1">
+        <v>1</v>
+      </c>
+      <c r="M138" s="1">
+        <v>1</v>
+      </c>
+      <c r="N138" s="1">
+        <v>1</v>
+      </c>
+      <c r="O138" s="1">
+        <v>1</v>
+      </c>
+      <c r="P138" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q138" s="1">
+        <v>3</v>
+      </c>
+      <c r="R138" s="1">
+        <v>3</v>
+      </c>
+      <c r="S138" s="1">
+        <v>1</v>
+      </c>
+      <c r="T138" s="1">
+        <v>1</v>
+      </c>
+      <c r="U138" s="1">
+        <v>3</v>
+      </c>
+      <c r="V138" s="1">
+        <v>3</v>
+      </c>
+      <c r="W138" s="1">
+        <v>3</v>
+      </c>
+      <c r="X138" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y138" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z138" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA138" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB138" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC138" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD138" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE138" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF138" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG138" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH138" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI138" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ138" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK138" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL138" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM138" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L139" s="1">
+        <v>1</v>
+      </c>
+      <c r="M139" s="1">
+        <v>1</v>
+      </c>
+      <c r="N139" s="1">
+        <v>1</v>
+      </c>
+      <c r="O139" s="1">
+        <v>1</v>
+      </c>
+      <c r="P139" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q139" s="1">
+        <v>3</v>
+      </c>
+      <c r="R139" s="1">
+        <v>3</v>
+      </c>
+      <c r="S139" s="1">
+        <v>3</v>
+      </c>
+      <c r="T139" s="1">
+        <v>3</v>
+      </c>
+      <c r="U139" s="1">
+        <v>3</v>
+      </c>
+      <c r="V139" s="1">
+        <v>3</v>
+      </c>
+      <c r="W139" s="1">
+        <v>3</v>
+      </c>
+      <c r="X139" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y139" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z139" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA139" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB139" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC139" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD139" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE139" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF139" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG139" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH139" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI139" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ139" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK139" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL139" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM139" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L140" s="1">
+        <v>1</v>
+      </c>
+      <c r="M140" s="1">
+        <v>1</v>
+      </c>
+      <c r="N140" s="1">
+        <v>1</v>
+      </c>
+      <c r="O140" s="1">
+        <v>1</v>
+      </c>
+      <c r="P140" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q140" s="1">
+        <v>3</v>
+      </c>
+      <c r="R140" s="1">
+        <v>3</v>
+      </c>
+      <c r="S140" s="1">
+        <v>3</v>
+      </c>
+      <c r="T140" s="1">
+        <v>3</v>
+      </c>
+      <c r="U140" s="1">
+        <v>3</v>
+      </c>
+      <c r="V140" s="1">
+        <v>3</v>
+      </c>
+      <c r="W140" s="1">
+        <v>3</v>
+      </c>
+      <c r="X140" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y140" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z140" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA140" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB140" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC140" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD140" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE140" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF140" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG140" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH140" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI140" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ140" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK140" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL140" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM140" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L141" s="1">
+        <v>1</v>
+      </c>
+      <c r="M141" s="1">
+        <v>1</v>
+      </c>
+      <c r="N141" s="1">
+        <v>1</v>
+      </c>
+      <c r="O141" s="1">
+        <v>1</v>
+      </c>
+      <c r="P141" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q141" s="1">
+        <v>3</v>
+      </c>
+      <c r="R141" s="1">
+        <v>3</v>
+      </c>
+      <c r="S141" s="1">
+        <v>3</v>
+      </c>
+      <c r="T141" s="1">
+        <v>3</v>
+      </c>
+      <c r="U141" s="1">
+        <v>3</v>
+      </c>
+      <c r="V141" s="1">
+        <v>3</v>
+      </c>
+      <c r="W141" s="1">
+        <v>3</v>
+      </c>
+      <c r="X141" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y141" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z141" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA141" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB141" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC141" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD141" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE141" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF141" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG141" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH141" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI141" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ141" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK141" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL141" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM141" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L142" s="1">
+        <v>1</v>
+      </c>
+      <c r="M142" s="1">
+        <v>1</v>
+      </c>
+      <c r="N142" s="1">
+        <v>1</v>
+      </c>
+      <c r="O142" s="1">
+        <v>1</v>
+      </c>
+      <c r="P142" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q142" s="1">
+        <v>3</v>
+      </c>
+      <c r="R142" s="1">
+        <v>3</v>
+      </c>
+      <c r="S142" s="1">
+        <v>3</v>
+      </c>
+      <c r="T142" s="1">
+        <v>3</v>
+      </c>
+      <c r="U142" s="1">
+        <v>3</v>
+      </c>
+      <c r="V142" s="1">
+        <v>3</v>
+      </c>
+      <c r="W142" s="1">
+        <v>3</v>
+      </c>
+      <c r="X142" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y142" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z142" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA142" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB142" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC142" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD142" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE142" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF142" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG142" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH142" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI142" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ142" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK142" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL142" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM142" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L143" s="1">
+        <v>1</v>
+      </c>
+      <c r="M143" s="1">
+        <v>1</v>
+      </c>
+      <c r="N143" s="1">
+        <v>1</v>
+      </c>
+      <c r="O143" s="1">
+        <v>1</v>
+      </c>
+      <c r="P143" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q143" s="1">
+        <v>1</v>
+      </c>
+      <c r="R143" s="1">
+        <v>1</v>
+      </c>
+      <c r="S143" s="1">
+        <v>1</v>
+      </c>
+      <c r="T143" s="1">
+        <v>1</v>
+      </c>
+      <c r="U143" s="1">
+        <v>1</v>
+      </c>
+      <c r="V143" s="1">
+        <v>1</v>
+      </c>
+      <c r="W143" s="1">
+        <v>1</v>
+      </c>
+      <c r="X143" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y143" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z143" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA143" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB143" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC143" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD143" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE143" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF143" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG143" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH143" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI143" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ143" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK143" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL143" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM143" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L145" s="1">
+        <v>1</v>
+      </c>
+      <c r="M145" s="1">
+        <v>1</v>
+      </c>
+      <c r="N145" s="1">
+        <v>2</v>
+      </c>
+      <c r="O145" s="1">
+        <v>2</v>
+      </c>
+      <c r="P145" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q145" s="1">
+        <v>2</v>
+      </c>
+      <c r="R145" s="1">
+        <v>2</v>
+      </c>
+      <c r="S145" s="1">
+        <v>2</v>
+      </c>
+      <c r="T145" s="1">
+        <v>2</v>
+      </c>
+      <c r="U145" s="1">
+        <v>2</v>
+      </c>
+      <c r="V145" s="1">
+        <v>2</v>
+      </c>
+      <c r="W145" s="1">
+        <v>2</v>
+      </c>
+      <c r="X145" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y145" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z145" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA145" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB145" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC145" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD145" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE145" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF145" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG145" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH145" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI145" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ145" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK145" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL145" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM145" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L146" s="1">
+        <v>1</v>
+      </c>
+      <c r="M146" s="1">
+        <v>1</v>
+      </c>
+      <c r="N146" s="1">
+        <v>2</v>
+      </c>
+      <c r="O146" s="1">
+        <v>2</v>
+      </c>
+      <c r="P146" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q146" s="1">
+        <v>2</v>
+      </c>
+      <c r="R146" s="1">
+        <v>2</v>
+      </c>
+      <c r="S146" s="1">
+        <v>2</v>
+      </c>
+      <c r="T146" s="1">
+        <v>2</v>
+      </c>
+      <c r="U146" s="1">
+        <v>2</v>
+      </c>
+      <c r="V146" s="1">
+        <v>2</v>
+      </c>
+      <c r="W146" s="1">
+        <v>2</v>
+      </c>
+      <c r="X146" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y146" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z146" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA146" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB146" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC146" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD146" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE146" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF146" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG146" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH146" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI146" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ146" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK146" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL146" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM146" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L147" s="1">
+        <v>1</v>
+      </c>
+      <c r="M147" s="1">
+        <v>1</v>
+      </c>
+      <c r="N147" s="1">
+        <v>2</v>
+      </c>
+      <c r="O147" s="1">
+        <v>2</v>
+      </c>
+      <c r="P147" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q147" s="1">
+        <v>2</v>
+      </c>
+      <c r="R147" s="1">
+        <v>2</v>
+      </c>
+      <c r="S147" s="1">
+        <v>2</v>
+      </c>
+      <c r="T147" s="1">
+        <v>2</v>
+      </c>
+      <c r="U147" s="1">
+        <v>2</v>
+      </c>
+      <c r="V147" s="1">
+        <v>2</v>
+      </c>
+      <c r="W147" s="1">
+        <v>2</v>
+      </c>
+      <c r="X147" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y147" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z147" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA147" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB147" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC147" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD147" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE147" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF147" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG147" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH147" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI147" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ147" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK147" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL147" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM147" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L148" s="1">
+        <v>1</v>
+      </c>
+      <c r="M148" s="1">
+        <v>1</v>
+      </c>
+      <c r="N148" s="1">
+        <v>2</v>
+      </c>
+      <c r="O148" s="1">
+        <v>2</v>
+      </c>
+      <c r="P148" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q148" s="1">
+        <v>2</v>
+      </c>
+      <c r="R148" s="1">
+        <v>2</v>
+      </c>
+      <c r="S148" s="1">
+        <v>2</v>
+      </c>
+      <c r="T148" s="1">
+        <v>2</v>
+      </c>
+      <c r="U148" s="1">
+        <v>2</v>
+      </c>
+      <c r="V148" s="1">
+        <v>2</v>
+      </c>
+      <c r="W148" s="1">
+        <v>2</v>
+      </c>
+      <c r="X148" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y148" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z148" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA148" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB148" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC148" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD148" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE148" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF148" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG148" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH148" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI148" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ148" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK148" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL148" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM148" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L149" s="1">
+        <v>1</v>
+      </c>
+      <c r="M149" s="1">
+        <v>1</v>
+      </c>
+      <c r="N149" s="1">
+        <v>2</v>
+      </c>
+      <c r="O149" s="1">
+        <v>2</v>
+      </c>
+      <c r="P149" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q149" s="1">
+        <v>2</v>
+      </c>
+      <c r="R149" s="1">
+        <v>2</v>
+      </c>
+      <c r="S149" s="1">
+        <v>2</v>
+      </c>
+      <c r="T149" s="1">
+        <v>2</v>
+      </c>
+      <c r="U149" s="1">
+        <v>2</v>
+      </c>
+      <c r="V149" s="1">
+        <v>2</v>
+      </c>
+      <c r="W149" s="1">
+        <v>2</v>
+      </c>
+      <c r="X149" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y149" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z149" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA149" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB149" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC149" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD149" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE149" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF149" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG149" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH149" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI149" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ149" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK149" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL149" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM149" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L150" s="1">
+        <v>1</v>
+      </c>
+      <c r="M150" s="1">
+        <v>1</v>
+      </c>
+      <c r="N150" s="1">
+        <v>2</v>
+      </c>
+      <c r="O150" s="1">
+        <v>2</v>
+      </c>
+      <c r="P150" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q150" s="1">
+        <v>2</v>
+      </c>
+      <c r="R150" s="1">
+        <v>2</v>
+      </c>
+      <c r="S150" s="1">
+        <v>2</v>
+      </c>
+      <c r="T150" s="1">
+        <v>2</v>
+      </c>
+      <c r="U150" s="1">
+        <v>2</v>
+      </c>
+      <c r="V150" s="1">
+        <v>2</v>
+      </c>
+      <c r="W150" s="1">
+        <v>2</v>
+      </c>
+      <c r="X150" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y150" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z150" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA150" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB150" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC150" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD150" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE150" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF150" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG150" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH150" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI150" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ150" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK150" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL150" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM150" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L151" s="1">
+        <v>1</v>
+      </c>
+      <c r="M151" s="1">
+        <v>1</v>
+      </c>
+      <c r="N151" s="1">
+        <v>2</v>
+      </c>
+      <c r="O151" s="1">
+        <v>2</v>
+      </c>
+      <c r="P151" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q151" s="1">
+        <v>2</v>
+      </c>
+      <c r="R151" s="1">
+        <v>2</v>
+      </c>
+      <c r="S151" s="1">
+        <v>2</v>
+      </c>
+      <c r="T151" s="1">
+        <v>2</v>
+      </c>
+      <c r="U151" s="1">
+        <v>2</v>
+      </c>
+      <c r="V151" s="1">
+        <v>2</v>
+      </c>
+      <c r="W151" s="1">
+        <v>2</v>
+      </c>
+      <c r="X151" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y151" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z151" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA151" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB151" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC151" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD151" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE151" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF151" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG151" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH151" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI151" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ151" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK151" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL151" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM151" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L152" s="1">
+        <v>1</v>
+      </c>
+      <c r="M152" s="1">
+        <v>1</v>
+      </c>
+      <c r="N152" s="1">
+        <v>2</v>
+      </c>
+      <c r="O152" s="1">
+        <v>2</v>
+      </c>
+      <c r="P152" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q152" s="1">
+        <v>2</v>
+      </c>
+      <c r="R152" s="1">
+        <v>2</v>
+      </c>
+      <c r="S152" s="1">
+        <v>2</v>
+      </c>
+      <c r="T152" s="1">
+        <v>2</v>
+      </c>
+      <c r="U152" s="1">
+        <v>2</v>
+      </c>
+      <c r="V152" s="1">
+        <v>2</v>
+      </c>
+      <c r="W152" s="1">
+        <v>2</v>
+      </c>
+      <c r="X152" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y152" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK152" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL152" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM152" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L153" s="1">
+        <v>1</v>
+      </c>
+      <c r="M153" s="1">
+        <v>1</v>
+      </c>
+      <c r="N153" s="1">
+        <v>1</v>
+      </c>
+      <c r="O153" s="1">
+        <v>1</v>
+      </c>
+      <c r="P153" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q153" s="1">
+        <v>2</v>
+      </c>
+      <c r="R153" s="1">
+        <v>2</v>
+      </c>
+      <c r="S153" s="1">
+        <v>3</v>
+      </c>
+      <c r="T153" s="1">
+        <v>3</v>
+      </c>
+      <c r="U153" s="1">
+        <v>3</v>
+      </c>
+      <c r="V153" s="1">
+        <v>3</v>
+      </c>
+      <c r="W153" s="1">
+        <v>3</v>
+      </c>
+      <c r="X153" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y153" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z153" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA153" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB153" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC153" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD153" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE153" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF153" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG153" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH153" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI153" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ153" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK153" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL153" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM153" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L154" s="1">
+        <v>1</v>
+      </c>
+      <c r="M154" s="1">
+        <v>1</v>
+      </c>
+      <c r="N154" s="1">
+        <v>1</v>
+      </c>
+      <c r="O154" s="1">
+        <v>1</v>
+      </c>
+      <c r="P154" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q154" s="1">
+        <v>2</v>
+      </c>
+      <c r="R154" s="1">
+        <v>2</v>
+      </c>
+      <c r="S154" s="1">
+        <v>3</v>
+      </c>
+      <c r="T154" s="1">
+        <v>3</v>
+      </c>
+      <c r="U154" s="1">
+        <v>3</v>
+      </c>
+      <c r="V154" s="1">
+        <v>3</v>
+      </c>
+      <c r="W154" s="1">
+        <v>3</v>
+      </c>
+      <c r="X154" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y154" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z154" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA154" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB154" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC154" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD154" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE154" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF154" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG154" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH154" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI154" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ154" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK154" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL154" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM154" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L155" s="1">
+        <v>1</v>
+      </c>
+      <c r="M155" s="1">
+        <v>1</v>
+      </c>
+      <c r="N155" s="1">
+        <v>1</v>
+      </c>
+      <c r="O155" s="1">
+        <v>1</v>
+      </c>
+      <c r="P155" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q155" s="1">
+        <v>2</v>
+      </c>
+      <c r="R155" s="1">
+        <v>2</v>
+      </c>
+      <c r="S155" s="1">
+        <v>3</v>
+      </c>
+      <c r="T155" s="1">
+        <v>3</v>
+      </c>
+      <c r="U155" s="1">
+        <v>3</v>
+      </c>
+      <c r="V155" s="1">
+        <v>3</v>
+      </c>
+      <c r="W155" s="1">
+        <v>3</v>
+      </c>
+      <c r="X155" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y155" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z155" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA155" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB155" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC155" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD155" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE155" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF155" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG155" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH155" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI155" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ155" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK155" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL155" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM155" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L156" s="1">
+        <v>1</v>
+      </c>
+      <c r="M156" s="1">
+        <v>1</v>
+      </c>
+      <c r="N156" s="1">
+        <v>1</v>
+      </c>
+      <c r="O156" s="1">
+        <v>1</v>
+      </c>
+      <c r="P156" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q156" s="1">
+        <v>2</v>
+      </c>
+      <c r="R156" s="1">
+        <v>2</v>
+      </c>
+      <c r="S156" s="1">
+        <v>2</v>
+      </c>
+      <c r="T156" s="1">
+        <v>2</v>
+      </c>
+      <c r="U156" s="1">
+        <v>2</v>
+      </c>
+      <c r="V156" s="1">
+        <v>2</v>
+      </c>
+      <c r="W156" s="1">
+        <v>2</v>
+      </c>
+      <c r="X156" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y156" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z156" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA156" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB156" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC156" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD156" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE156" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF156" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG156" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH156" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI156" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ156" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK156" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL156" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM156" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L157" s="1">
+        <v>1</v>
+      </c>
+      <c r="M157" s="1">
+        <v>1</v>
+      </c>
+      <c r="N157" s="1">
+        <v>1</v>
+      </c>
+      <c r="O157" s="1">
+        <v>1</v>
+      </c>
+      <c r="P157" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q157" s="1">
+        <v>2</v>
+      </c>
+      <c r="R157" s="1">
+        <v>2</v>
+      </c>
+      <c r="S157" s="1">
+        <v>2</v>
+      </c>
+      <c r="T157" s="1">
+        <v>2</v>
+      </c>
+      <c r="U157" s="1">
+        <v>2</v>
+      </c>
+      <c r="V157" s="1">
+        <v>2</v>
+      </c>
+      <c r="W157" s="1">
+        <v>2</v>
+      </c>
+      <c r="X157" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y157" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z157" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA157" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB157" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC157" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD157" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE157" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF157" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG157" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH157" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI157" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ157" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK157" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL157" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM157" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L158" s="1">
+        <v>1</v>
+      </c>
+      <c r="M158" s="1">
+        <v>1</v>
+      </c>
+      <c r="N158" s="1">
+        <v>1</v>
+      </c>
+      <c r="O158" s="1">
+        <v>1</v>
+      </c>
+      <c r="P158" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q158" s="1">
+        <v>2</v>
+      </c>
+      <c r="R158" s="1">
+        <v>2</v>
+      </c>
+      <c r="S158" s="1">
+        <v>2</v>
+      </c>
+      <c r="T158" s="1">
+        <v>2</v>
+      </c>
+      <c r="U158" s="1">
+        <v>2</v>
+      </c>
+      <c r="V158" s="1">
+        <v>2</v>
+      </c>
+      <c r="W158" s="1">
+        <v>2</v>
+      </c>
+      <c r="X158" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y158" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z158" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA158" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB158" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC158" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD158" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE158" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF158" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG158" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH158" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI158" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ158" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK158" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL158" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM158" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L159" s="1">
+        <v>1</v>
+      </c>
+      <c r="M159" s="1">
+        <v>1</v>
+      </c>
+      <c r="N159" s="1">
+        <v>1</v>
+      </c>
+      <c r="O159" s="1">
+        <v>1</v>
+      </c>
+      <c r="P159" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q159" s="1">
+        <v>1</v>
+      </c>
+      <c r="R159" s="1">
+        <v>1</v>
+      </c>
+      <c r="S159" s="1">
+        <v>1</v>
+      </c>
+      <c r="T159" s="1">
+        <v>1</v>
+      </c>
+      <c r="U159" s="1">
+        <v>2</v>
+      </c>
+      <c r="V159" s="1">
+        <v>2</v>
+      </c>
+      <c r="W159" s="1">
+        <v>2</v>
+      </c>
+      <c r="X159" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y159" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z159" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA159" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB159" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC159" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD159" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE159" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF159" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG159" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH159" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI159" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ159" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK159" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL159" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM159" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L160" s="1">
+        <v>1</v>
+      </c>
+      <c r="M160" s="1">
+        <v>1</v>
+      </c>
+      <c r="N160" s="1">
+        <v>1</v>
+      </c>
+      <c r="O160" s="1">
+        <v>1</v>
+      </c>
+      <c r="P160" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q160" s="1">
+        <v>1</v>
+      </c>
+      <c r="R160" s="1">
+        <v>1</v>
+      </c>
+      <c r="S160" s="1">
+        <v>1</v>
+      </c>
+      <c r="T160" s="1">
+        <v>1</v>
+      </c>
+      <c r="U160" s="1">
+        <v>1</v>
+      </c>
+      <c r="V160" s="1">
+        <v>1</v>
+      </c>
+      <c r="W160" s="1">
+        <v>1</v>
+      </c>
+      <c r="X160" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y160" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z160" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA160" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB160" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC160" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD160" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE160" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF160" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG160" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH160" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI160" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ160" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK160" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL160" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM160" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L161" s="1">
+        <v>1</v>
+      </c>
+      <c r="M161" s="1">
+        <v>1</v>
+      </c>
+      <c r="N161" s="1">
+        <v>1</v>
+      </c>
+      <c r="O161" s="1">
+        <v>1</v>
+      </c>
+      <c r="P161" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q161" s="1">
+        <v>1</v>
+      </c>
+      <c r="R161" s="1">
+        <v>1</v>
+      </c>
+      <c r="S161" s="1">
+        <v>1</v>
+      </c>
+      <c r="T161" s="1">
+        <v>1</v>
+      </c>
+      <c r="U161" s="1">
+        <v>1</v>
+      </c>
+      <c r="V161" s="1">
+        <v>1</v>
+      </c>
+      <c r="W161" s="1">
+        <v>1</v>
+      </c>
+      <c r="X161" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y161" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z161" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA161" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB161" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC161" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD161" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE161" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF161" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG161" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH161" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI161" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ161" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK161" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL161" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM161" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L162" s="1">
+        <v>1</v>
+      </c>
+      <c r="M162" s="1">
+        <v>1</v>
+      </c>
+      <c r="N162" s="1">
+        <v>1</v>
+      </c>
+      <c r="O162" s="1">
+        <v>1</v>
+      </c>
+      <c r="P162" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q162" s="1">
+        <v>1</v>
+      </c>
+      <c r="R162" s="1">
+        <v>1</v>
+      </c>
+      <c r="S162" s="1">
+        <v>1</v>
+      </c>
+      <c r="T162" s="1">
+        <v>1</v>
+      </c>
+      <c r="U162" s="1">
+        <v>1</v>
+      </c>
+      <c r="V162" s="1">
+        <v>1</v>
+      </c>
+      <c r="W162" s="1">
+        <v>1</v>
+      </c>
+      <c r="X162" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y162" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z162" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA162" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB162" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC162" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD162" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE162" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF162" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG162" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH162" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI162" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ162" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK162" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL162" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM162" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L163" s="1">
+        <v>1</v>
+      </c>
+      <c r="M163" s="1">
+        <v>1</v>
+      </c>
+      <c r="N163" s="1">
+        <v>1</v>
+      </c>
+      <c r="O163" s="1">
+        <v>1</v>
+      </c>
+      <c r="P163" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q163" s="1">
+        <v>1</v>
+      </c>
+      <c r="R163" s="1">
+        <v>1</v>
+      </c>
+      <c r="S163" s="1">
+        <v>1</v>
+      </c>
+      <c r="T163" s="1">
+        <v>1</v>
+      </c>
+      <c r="U163" s="1">
+        <v>1</v>
+      </c>
+      <c r="V163" s="1">
+        <v>1</v>
+      </c>
+      <c r="W163" s="1">
+        <v>1</v>
+      </c>
+      <c r="X163" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y163" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z163" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA163" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB163" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC163" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD163" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE163" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF163" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG163" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH163" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI163" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ163" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK163" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL163" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM163" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L164" s="1">
+        <v>1</v>
+      </c>
+      <c r="M164" s="1">
+        <v>1</v>
+      </c>
+      <c r="N164" s="1">
+        <v>1</v>
+      </c>
+      <c r="O164" s="1">
+        <v>1</v>
+      </c>
+      <c r="P164" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q164" s="1">
+        <v>1</v>
+      </c>
+      <c r="R164" s="1">
+        <v>1</v>
+      </c>
+      <c r="S164" s="1">
+        <v>1</v>
+      </c>
+      <c r="T164" s="1">
+        <v>1</v>
+      </c>
+      <c r="U164" s="1">
+        <v>1</v>
+      </c>
+      <c r="V164" s="1">
+        <v>1</v>
+      </c>
+      <c r="W164" s="1">
+        <v>1</v>
+      </c>
+      <c r="X164" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y164" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z164" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA164" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB164" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC164" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD164" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE164" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF164" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG164" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH164" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI164" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ164" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK164" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL164" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM164" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L165" s="1">
+        <v>1</v>
+      </c>
+      <c r="M165" s="1">
+        <v>1</v>
+      </c>
+      <c r="N165" s="1">
+        <v>1</v>
+      </c>
+      <c r="O165" s="1">
+        <v>1</v>
+      </c>
+      <c r="P165" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q165" s="1">
+        <v>1</v>
+      </c>
+      <c r="R165" s="1">
+        <v>1</v>
+      </c>
+      <c r="S165" s="1">
+        <v>1</v>
+      </c>
+      <c r="T165" s="1">
+        <v>1</v>
+      </c>
+      <c r="U165" s="1">
+        <v>1</v>
+      </c>
+      <c r="V165" s="1">
+        <v>1</v>
+      </c>
+      <c r="W165" s="1">
+        <v>1</v>
+      </c>
+      <c r="X165" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y165" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z165" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA165" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB165" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC165" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD165" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE165" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF165" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG165" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH165" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI165" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ165" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK165" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL165" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM165" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L166" s="1">
+        <v>1</v>
+      </c>
+      <c r="M166" s="1">
+        <v>1</v>
+      </c>
+      <c r="N166" s="1">
+        <v>1</v>
+      </c>
+      <c r="O166" s="1">
+        <v>1</v>
+      </c>
+      <c r="P166" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q166" s="1">
+        <v>1</v>
+      </c>
+      <c r="R166" s="1">
+        <v>1</v>
+      </c>
+      <c r="S166" s="1">
+        <v>1</v>
+      </c>
+      <c r="T166" s="1">
+        <v>1</v>
+      </c>
+      <c r="U166" s="1">
+        <v>1</v>
+      </c>
+      <c r="V166" s="1">
+        <v>1</v>
+      </c>
+      <c r="W166" s="1">
+        <v>1</v>
+      </c>
+      <c r="X166" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y166" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z166" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA166" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB166" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC166" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD166" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE166" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF166" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG166" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH166" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI166" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ166" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK166" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL166" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM166" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L167" s="1">
+        <v>1</v>
+      </c>
+      <c r="M167" s="1">
+        <v>1</v>
+      </c>
+      <c r="N167" s="1">
+        <v>1</v>
+      </c>
+      <c r="O167" s="1">
+        <v>1</v>
+      </c>
+      <c r="P167" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q167" s="1">
+        <v>4</v>
+      </c>
+      <c r="R167" s="1">
+        <v>4</v>
+      </c>
+      <c r="S167" s="1">
+        <v>4</v>
+      </c>
+      <c r="T167" s="1">
+        <v>4</v>
+      </c>
+      <c r="U167" s="1">
+        <v>4</v>
+      </c>
+      <c r="V167" s="1">
+        <v>4</v>
+      </c>
+      <c r="W167" s="1">
+        <v>4</v>
+      </c>
+      <c r="X167" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y167" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z167" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA167" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB167" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC167" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD167" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE167" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF167" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG167" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH167" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI167" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ167" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK167" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL167" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM167" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="177" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="178" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="179" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/result-highlighted.xlsx
+++ b/result-highlighted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codee\package_splitter\splitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731545D5-9120-4EE0-BA17-0D3A5C437C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4589DC95-FA07-4D11-9D0B-955833E9ED83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,7 +560,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="54">
     <dxf>
       <fill>
         <patternFill>
@@ -606,77 +606,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
+          <bgColor rgb="FFCB7FB5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -760,6 +690,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFBE7CB0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -802,7 +739,63 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
+          <bgColor rgb="FFCB7FB5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -948,6 +941,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBE7CB0"/>
+      <color rgb="FFCB7FB5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1258,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BN270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AT43" sqref="AT43"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="V188" sqref="V188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18286,13 +18285,13 @@
         <v>1</v>
       </c>
       <c r="N169" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O169" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P169" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q169" s="1">
         <v>2</v>
@@ -18328,40 +18327,40 @@
         <v>2</v>
       </c>
       <c r="AB169" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC169" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD169" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE169" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF169" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG169" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH169" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI169" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ169" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK169" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL169" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM169" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -18387,13 +18386,13 @@
         <v>2</v>
       </c>
       <c r="S170" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T170" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U170" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V170" s="1">
         <v>2</v>
@@ -18405,81 +18404,81 @@
         <v>2</v>
       </c>
       <c r="Y170" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z170" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA170" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB170" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC170" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD170" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE170" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF170" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG170" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH170" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI170" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ170" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK170" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL170" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM170" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L171" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M171" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N171" s="1">
         <v>1</v>
       </c>
       <c r="O171" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P171" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q171" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R171" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S171" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T171" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U171" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V171" s="1">
         <v>2</v>
@@ -18491,81 +18490,81 @@
         <v>2</v>
       </c>
       <c r="Y171" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z171" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA171" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB171" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC171" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD171" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE171" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF171" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG171" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH171" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI171" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ171" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK171" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL171" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM171" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L172" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M172" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N172" s="1">
         <v>1</v>
       </c>
       <c r="O172" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P172" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q172" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R172" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S172" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T172" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U172" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V172" s="1">
         <v>2</v>
@@ -18577,81 +18576,81 @@
         <v>2</v>
       </c>
       <c r="Y172" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z172" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA172" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB172" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC172" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD172" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE172" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF172" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG172" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH172" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI172" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ172" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK172" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL172" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM172" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L173" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M173" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N173" s="1">
         <v>1</v>
       </c>
       <c r="O173" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P173" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q173" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R173" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S173" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T173" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U173" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V173" s="1">
         <v>2</v>
@@ -18663,229 +18662,229 @@
         <v>2</v>
       </c>
       <c r="Y173" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z173" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA173" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB173" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC173" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD173" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE173" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF173" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG173" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH173" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI173" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ173" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK173" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL173" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM173" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L174" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M174" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N174" s="1">
         <v>1</v>
       </c>
       <c r="O174" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P174" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q174" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R174" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S174" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T174" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U174" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V174" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W174" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X174" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y174" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z174" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA174" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB174" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC174" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD174" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE174" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF174" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG174" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH174" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI174" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ174" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK174" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL174" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM174" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L175" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M175" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N175" s="1">
         <v>1</v>
       </c>
       <c r="O175" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P175" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q175" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R175" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S175" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T175" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U175" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V175" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W175" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X175" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y175" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z175" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA175" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB175" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC175" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD175" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE175" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF175" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG175" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH175" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI175" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ175" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK175" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL175" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM175" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L176" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M176" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N176" s="1">
         <v>1</v>
@@ -18912,66 +18911,66 @@
         <v>1</v>
       </c>
       <c r="V176" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W176" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X176" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y176" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z176" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA176" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB176" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC176" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD176" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE176" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF176" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG176" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH176" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI176" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ176" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK176" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL176" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM176" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L177" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M177" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N177" s="1">
         <v>1</v>
@@ -18983,10 +18982,10 @@
         <v>1</v>
       </c>
       <c r="Q177" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R177" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S177" s="1">
         <v>1</v>
@@ -19004,60 +19003,60 @@
         <v>1</v>
       </c>
       <c r="X177" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y177" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z177" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA177" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB177" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC177" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD177" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE177" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF177" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG177" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH177" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI177" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ177" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK177" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL177" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM177" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L178" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M178" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N178" s="1">
         <v>1</v>
@@ -19069,10 +19068,10 @@
         <v>1</v>
       </c>
       <c r="Q178" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R178" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S178" s="1">
         <v>1</v>
@@ -19090,60 +19089,60 @@
         <v>1</v>
       </c>
       <c r="X178" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y178" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z178" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA178" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB178" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC178" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD178" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE178" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF178" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG178" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH178" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI178" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ178" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK178" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL178" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM178" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L179" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M179" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N179" s="1">
         <v>1</v>
@@ -19155,10 +19154,10 @@
         <v>1</v>
       </c>
       <c r="Q179" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R179" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S179" s="1">
         <v>1</v>
@@ -19176,60 +19175,60 @@
         <v>1</v>
       </c>
       <c r="X179" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y179" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z179" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA179" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB179" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC179" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD179" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE179" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF179" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG179" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH179" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI179" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ179" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK179" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL179" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM179" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L180" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M180" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N180" s="1">
         <v>1</v>
@@ -19241,10 +19240,10 @@
         <v>1</v>
       </c>
       <c r="Q180" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R180" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S180" s="1">
         <v>6</v>
@@ -19262,25 +19261,25 @@
         <v>6</v>
       </c>
       <c r="X180" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y180" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z180" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA180" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB180" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC180" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD180" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE180" s="1">
         <v>5</v>
@@ -19304,18 +19303,18 @@
         <v>5</v>
       </c>
       <c r="AL180" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM180" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L181" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M181" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N181" s="1">
         <v>1</v>
@@ -19348,25 +19347,25 @@
         <v>6</v>
       </c>
       <c r="X181" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y181" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z181" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA181" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB181" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC181" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD181" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE181" s="1">
         <v>5</v>
@@ -19390,18 +19389,18 @@
         <v>5</v>
       </c>
       <c r="AL181" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM181" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L182" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M182" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N182" s="1">
         <v>1</v>
@@ -19434,81 +19433,81 @@
         <v>6</v>
       </c>
       <c r="X182" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y182" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z182" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA182" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB182" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC182" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD182" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE182" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF182" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG182" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH182" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI182" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ182" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK182" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL182" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM182" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L183" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M183" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N183" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O183" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P183" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q183" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R183" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S183" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T183" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U183" s="1">
         <v>6</v>
@@ -19520,155 +19519,155 @@
         <v>6</v>
       </c>
       <c r="X183" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y183" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z183" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA183" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB183" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC183" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD183" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE183" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF183" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG183" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH183" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI183" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ183" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK183" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL183" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM183" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L184" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M184" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N184" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O184" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P184" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q184" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R184" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S184" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T184" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U184" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V184" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="W184" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="X184" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y184" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z184" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA184" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB184" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC184" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD184" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE184" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF184" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG184" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH184" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI184" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ184" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK184" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL184" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM184" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L185" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M185" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N185" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O185" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P185" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q185" s="1">
         <v>9</v>
@@ -19677,84 +19676,84 @@
         <v>9</v>
       </c>
       <c r="S185" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T185" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U185" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V185" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="W185" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="X185" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y185" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z185" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA185" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB185" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC185" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD185" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE185" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF185" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG185" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH185" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI185" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ185" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK185" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL185" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM185" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L186" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M186" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N186" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O186" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P186" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q186" s="1">
         <v>9</v>
@@ -19763,10 +19762,10 @@
         <v>9</v>
       </c>
       <c r="S186" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T186" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U186" s="1">
         <v>9</v>
@@ -19778,69 +19777,69 @@
         <v>9</v>
       </c>
       <c r="X186" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y186" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z186" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA186" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB186" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC186" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD186" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE186" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF186" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG186" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH186" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI186" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ186" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK186" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL186" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM186" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L187" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M187" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N187" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O187" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P187" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q187" s="1">
         <v>9</v>
@@ -19870,63 +19869,63 @@
         <v>9</v>
       </c>
       <c r="Z187" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA187" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB187" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC187" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD187" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE187" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF187" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG187" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH187" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI187" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ187" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK187" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL187" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM187" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L188" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M188" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N188" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O188" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P188" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q188" s="1">
         <v>9</v>
@@ -19956,63 +19955,63 @@
         <v>9</v>
       </c>
       <c r="Z188" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA188" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB188" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC188" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD188" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE188" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF188" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG188" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH188" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI188" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ188" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK188" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL188" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM188" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L189" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M189" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N189" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O189" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P189" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q189" s="1">
         <v>9</v>
@@ -20042,51 +20041,51 @@
         <v>9</v>
       </c>
       <c r="Z189" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA189" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB189" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC189" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD189" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE189" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF189" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG189" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH189" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI189" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ189" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK189" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL189" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM189" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L190" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M190" s="1">
         <v>9</v>
@@ -20128,51 +20127,51 @@
         <v>9</v>
       </c>
       <c r="Z190" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA190" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB190" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC190" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD190" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE190" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF190" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG190" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH190" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI190" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ190" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK190" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL190" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM190" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L191" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M191" s="1">
         <v>9</v>
@@ -20187,73 +20186,73 @@
         <v>9</v>
       </c>
       <c r="Q191" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R191" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S191" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T191" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U191" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V191" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W191" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X191" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y191" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z191" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA191" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB191" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC191" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD191" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE191" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF191" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG191" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH191" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI191" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ191" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK191" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL191" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM191" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20337,13 +20336,13 @@
     <row r="270" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="36" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
       <formula>3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="33" priority="15" operator="equal">
